--- a/Stocks/BHARATFIN.xlsx
+++ b/Stocks/BHARATFIN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>787.0333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>843.83139635543102</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>814.11335892888962</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>69.43474921308281</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>3.5499999999999545</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>16.75</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.21194029850745996</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>786.45673483066832</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>27.542545201182861</v>
       </c>
       <c r="Y67">
         <v>21.18727775088518</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>884.25</v>
+      </c>
+      <c r="D83">
+        <v>896.5</v>
+      </c>
+      <c r="E83">
+        <v>880</v>
+      </c>
+      <c r="F83">
+        <v>886.55</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>887.68333333333339</v>
+      </c>
+      <c r="H83">
+        <v>882.22431307062311</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>878.28273437121391</v>
+      </c>
+      <c r="K83">
+        <v>849.5907700290993</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>67.803750601534617</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>6.5499999999999545</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>16.5</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.3969696969696942</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>854.23618361397382</v>
+      </c>
+      <c r="W83">
+        <v>829.02541703168504</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>25.210766582288784</v>
+      </c>
+      <c r="Y83">
+        <v>20.717987398456518</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>877</v>
+      </c>
+      <c r="D84">
+        <v>882.75</v>
+      </c>
+      <c r="E84">
+        <v>852.6</v>
+      </c>
+      <c r="F84">
+        <v>858.5</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>864.61666666666667</v>
+      </c>
+      <c r="H84">
+        <v>873.42048986864484</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>879.2754600664997</v>
+      </c>
+      <c r="K84">
+        <v>850.25948780041062</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>48.373395329561284</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>5.8999999999999773</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>30.149999999999977</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.19568822553897119</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>854.89215536567019</v>
+      </c>
+      <c r="W84">
+        <v>831.20871947378248</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>23.683435891887711</v>
+      </c>
+      <c r="Y84">
+        <v>21.311077097142757</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>869.9</v>
+      </c>
+      <c r="D85">
+        <v>884.5</v>
+      </c>
+      <c r="E85">
+        <v>865.7</v>
+      </c>
+      <c r="F85">
+        <v>876</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>875.4</v>
+      </c>
+      <c r="H85">
+        <v>874.41024493432246</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>880.43646894061089</v>
+      </c>
+      <c r="K85">
+        <v>853.69071273365273</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>57.803537914445826</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>10.299999999999955</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>18.799999999999955</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.54787234042553079</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>858.13951607864396</v>
+      </c>
+      <c r="W85">
+        <v>834.5265921053541</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>23.612923973289867</v>
+      </c>
+      <c r="Y85">
+        <v>21.77144647237218</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>874</v>
+      </c>
+      <c r="D86">
+        <v>887.4</v>
+      </c>
+      <c r="E86">
+        <v>871.1</v>
+      </c>
+      <c r="F86">
+        <v>881.05</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>879.85</v>
+      </c>
+      <c r="H86">
+        <v>877.1301224671613</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>881.98392028714181</v>
+      </c>
+      <c r="K86">
+        <v>857.55944323728545</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>60.411927147787004</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>9.9499999999999318</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>16.299999999999955</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.61042944785275821</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>861.66420591269878</v>
+      </c>
+      <c r="W86">
+        <v>837.97277046792044</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>23.691435444778335</v>
+      </c>
+      <c r="Y86">
+        <v>22.155444266853412</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>884</v>
+      </c>
+      <c r="D87">
+        <v>917.95</v>
+      </c>
+      <c r="E87">
+        <v>880.1</v>
+      </c>
+      <c r="F87">
+        <v>904.5</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>900.85</v>
+      </c>
+      <c r="H87">
+        <v>888.99006123358072</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>889.9763824455548</v>
+      </c>
+      <c r="K87">
+        <v>862.56845585122198</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>70.865511696130525</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>24.399999999999977</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>37.850000000000023</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.64464993394980086</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>868.25432807997583</v>
+      </c>
+      <c r="W87">
+        <v>842.90071339622261</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>25.353614683753221</v>
+      </c>
+      <c r="Y87">
+        <v>22.795078350233375</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>904.95</v>
+      </c>
+      <c r="D88">
+        <v>914.65</v>
+      </c>
+      <c r="E88">
+        <v>872.05</v>
+      </c>
+      <c r="F88">
+        <v>903.55</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>896.75</v>
+      </c>
+      <c r="H88">
+        <v>892.87003061679036</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>895.45940856876484</v>
+      </c>
+      <c r="K88">
+        <v>864.67546566206158</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>69.930412387449053</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>31.5</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>42.600000000000023</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.73943661971830943</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>873.68443145228719</v>
+      </c>
+      <c r="W88">
+        <v>847.39325314465054</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>26.291178307636642</v>
+      </c>
+      <c r="Y88">
+        <v>23.494298341714028</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>914.45</v>
+      </c>
+      <c r="D89">
+        <v>928.7</v>
+      </c>
+      <c r="E89">
+        <v>912</v>
+      </c>
+      <c r="F89">
+        <v>921.85</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>920.85</v>
+      </c>
+      <c r="H89">
+        <v>906.86001530839519</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>902.84620666459489</v>
+      </c>
+      <c r="K89">
+        <v>875.19202884827007</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>77.180793612053037</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>9.8500000000000227</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>16.700000000000045</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.58982035928143683</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>881.09451892116613</v>
+      </c>
+      <c r="W89">
+        <v>852.9085677265283</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>28.185951194637823</v>
+      </c>
+      <c r="Y89">
+        <v>24.432628912298789</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>912.55</v>
+      </c>
+      <c r="D90">
+        <v>962.2</v>
+      </c>
+      <c r="E90">
+        <v>900</v>
+      </c>
+      <c r="F90">
+        <v>949</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>937.06666666666661</v>
+      </c>
+      <c r="H90">
+        <v>921.96334098753096</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>916.03593851690709</v>
+      </c>
+      <c r="K90">
+        <v>880.70491132643224</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>84.231723029645707</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>62.200000000000045</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.78778135048231457</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>891.54151601021749</v>
+      </c>
+      <c r="W90">
+        <v>860.02645159863732</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>31.51506441158017</v>
+      </c>
+      <c r="Y90">
+        <v>25.849116012155065</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>955.05</v>
+      </c>
+      <c r="D91">
+        <v>966.8</v>
+      </c>
+      <c r="E91">
+        <v>941.35</v>
+      </c>
+      <c r="F91">
+        <v>945.65</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>951.26666666666677</v>
+      </c>
+      <c r="H91">
+        <v>936.61500382709892</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>927.31684106870546</v>
+      </c>
+      <c r="K91">
+        <v>894.18159769833619</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>80.400061000261928</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>4.2999999999999545</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>25.449999999999932</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.16895874263261162</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>899.8658981624917</v>
+      </c>
+      <c r="W91">
+        <v>866.36893666540493</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>33.496961497086772</v>
+      </c>
+      <c r="Y91">
+        <v>27.378685109141408</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>956</v>
+      </c>
+      <c r="D92">
+        <v>957.55</v>
+      </c>
+      <c r="E92">
+        <v>930.5</v>
+      </c>
+      <c r="F92">
+        <v>933.55</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>940.5333333333333</v>
+      </c>
+      <c r="H92">
+        <v>938.57416858021611</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>934.03532083121536</v>
+      </c>
+      <c r="K92">
+        <v>902.25235376537262</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>66.700904943870142</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>3.0499999999999545</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>27.049999999999955</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.11275415896487836</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>905.04806767595448</v>
+      </c>
+      <c r="W92">
+        <v>871.34531172722677</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>33.702755948727713</v>
+      </c>
+      <c r="Y92">
+        <v>28.64349927705867</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>934.85</v>
+      </c>
+      <c r="D93">
+        <v>980.5</v>
+      </c>
+      <c r="E93">
+        <v>919.3</v>
+      </c>
+      <c r="F93">
+        <v>967.05</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>955.61666666666667</v>
+      </c>
+      <c r="H93">
+        <v>947.09541762344134</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>944.36080509094529</v>
+      </c>
+      <c r="K93">
+        <v>906.04071959528983</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>79.052786950907134</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>47.75</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>61.200000000000045</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.78022875816993409</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>914.58682649503839</v>
+      </c>
+      <c r="W93">
+        <v>878.43454789558029</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>36.1522785994581</v>
+      </c>
+      <c r="Y93">
+        <v>30.145255141538556</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>970</v>
+      </c>
+      <c r="D94">
+        <v>975.2</v>
+      </c>
+      <c r="E94">
+        <v>953.3</v>
+      </c>
+      <c r="F94">
+        <v>966.7</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>965.06666666666661</v>
+      </c>
+      <c r="H94">
+        <v>956.08104214505397</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>951.21395951517968</v>
+      </c>
+      <c r="K94">
+        <v>916.54278190744765</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>78.671675189729811</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>13.400000000000091</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>21.900000000000091</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.61187214611872309</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>922.60423780349402</v>
+      </c>
+      <c r="W94">
+        <v>884.97272953294475</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>37.631508270549261</v>
+      </c>
+      <c r="Y94">
+        <v>31.642505767340698</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>961</v>
+      </c>
+      <c r="D95">
+        <v>969.6</v>
+      </c>
+      <c r="E95">
+        <v>947.65</v>
+      </c>
+      <c r="F95">
+        <v>952.55</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>956.6</v>
+      </c>
+      <c r="H95">
+        <v>956.34052107252705</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>955.29974628958416</v>
+      </c>
+      <c r="K95">
+        <v>923.45549703912593</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>63.259631474919061</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>4.8999999999999773</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>21.950000000000045</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.22323462414578438</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>927.21127814141801</v>
+      </c>
+      <c r="W95">
+        <v>889.97845327124514</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>37.232824870172863</v>
+      </c>
+      <c r="Y95">
+        <v>32.760569587907128</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>951.8</v>
+      </c>
+      <c r="D96">
+        <v>965.7</v>
+      </c>
+      <c r="E96">
+        <v>949.05</v>
+      </c>
+      <c r="F96">
+        <v>955.95</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>956.9</v>
+      </c>
+      <c r="H96">
+        <v>956.62026053626346</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>957.61091378078766</v>
+      </c>
+      <c r="K96">
+        <v>929.14316436376464</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>65.301310189262836</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>6.9000000000000909</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>16.650000000000091</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.41441441441441762</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>931.63261996581525</v>
+      </c>
+      <c r="W96">
+        <v>894.86523451041217</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>36.767385455403087</v>
+      </c>
+      <c r="Y96">
+        <v>33.561932761406318</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>950.1</v>
+      </c>
+      <c r="D97">
+        <v>955.9</v>
+      </c>
+      <c r="E97">
+        <v>939</v>
+      </c>
+      <c r="F97">
+        <v>944</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>946.30000000000007</v>
+      </c>
+      <c r="H97">
+        <v>951.46013026813171</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>957.23071071839036</v>
+      </c>
+      <c r="K97">
+        <v>931.333572282928</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>52.487013943103413</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>16.899999999999977</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.29585798816568087</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>933.53529381722831</v>
+      </c>
+      <c r="W97">
+        <v>898.50484676890017</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>35.030447048328142</v>
+      </c>
+      <c r="Y97">
+        <v>33.855635618790686</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>951</v>
+      </c>
+      <c r="D98">
+        <v>955.7</v>
+      </c>
+      <c r="E98">
+        <v>941.5</v>
+      </c>
+      <c r="F98">
+        <v>946</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>947.73333333333323</v>
+      </c>
+      <c r="H98">
+        <v>949.59673180073241</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>956.89055278097032</v>
+      </c>
+      <c r="K98">
+        <v>933.59277844227734</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>54.360646616048392</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>14.200000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.31690140845070319</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>935.45294092227016</v>
+      </c>
+      <c r="W98">
+        <v>902.02300626750014</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>33.429934654770022</v>
+      </c>
+      <c r="Y98">
+        <v>33.770495425986553</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>948.95</v>
+      </c>
+      <c r="D99">
+        <v>958.65</v>
+      </c>
+      <c r="E99">
+        <v>940.1</v>
+      </c>
+      <c r="F99">
+        <v>947.6</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>948.7833333333333</v>
+      </c>
+      <c r="H99">
+        <v>949.19003256703286</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>957.28154105186582</v>
+      </c>
+      <c r="K99">
+        <v>935.03882767732682</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>56.092115298689457</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>7.5</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>18.549999999999955</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.40431266846361286</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>937.32171924192096</v>
+      </c>
+      <c r="W99">
+        <v>905.39907987731499</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>31.922639364605971</v>
+      </c>
+      <c r="Y99">
+        <v>33.400924213710439</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>950</v>
+      </c>
+      <c r="D100">
+        <v>968.7</v>
+      </c>
+      <c r="E100">
+        <v>946.3</v>
+      </c>
+      <c r="F100">
+        <v>964.8</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>959.93333333333339</v>
+      </c>
+      <c r="H100">
+        <v>954.56168295018313</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>959.81897637367342</v>
+      </c>
+      <c r="K100">
+        <v>937.5413104156986</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>70.91793865855378</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>18.5</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>22.400000000000091</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.82589285714285376</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V100">
+        <v>941.54914705085616</v>
+      </c>
+      <c r="W100">
+        <v>909.79914803455097</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>31.749999016305196</v>
+      </c>
+      <c r="Y100">
+        <v>33.070739174229388</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>960.2</v>
+      </c>
+      <c r="D101">
+        <v>971.9</v>
+      </c>
+      <c r="E101">
+        <v>951</v>
+      </c>
+      <c r="F101">
+        <v>964.9</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>962.6</v>
+      </c>
+      <c r="H101">
+        <v>958.58084147509157</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>962.50364829063483</v>
+      </c>
+      <c r="K101">
+        <v>940.5321303233211</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>70.989128601740674</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>13.899999999999977</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>20.899999999999977</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.66507177033492781</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>945.14158596610901</v>
+      </c>
+      <c r="W101">
+        <v>913.88069262458419</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>31.26089334152482</v>
+      </c>
+      <c r="Y101">
+        <v>32.708770007688472</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>962.65</v>
+      </c>
+      <c r="D102">
+        <v>962.65</v>
+      </c>
+      <c r="E102">
+        <v>938.9</v>
+      </c>
+      <c r="F102">
+        <v>942.95</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>948.16666666666663</v>
+      </c>
+      <c r="H102">
+        <v>953.37375407087916</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>962.53617089271597</v>
+      </c>
+      <c r="K102">
+        <v>940.16943469591638</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>42.46669959551582</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>4.0500000000000682</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>23.75</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.17052631578947655</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>944.80441889439999</v>
+      </c>
+      <c r="W102">
+        <v>916.03397465239277</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>28.770444242007216</v>
+      </c>
+      <c r="Y102">
+        <v>31.921104854552219</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>932.9</v>
+      </c>
+      <c r="D103">
+        <v>944.7</v>
+      </c>
+      <c r="E103">
+        <v>906.45</v>
+      </c>
+      <c r="F103">
+        <v>942</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>931.05000000000007</v>
+      </c>
+      <c r="H103">
+        <v>942.21187703543956</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>958.57257736100132</v>
+      </c>
+      <c r="K103">
+        <v>932.67622698571279</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>41.563251368153665</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>35.549999999999955</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>38.25</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.92941176470588116</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>944.37296983372312</v>
+      </c>
+      <c r="W103">
+        <v>917.95738393740066</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>26.415585896322455</v>
+      </c>
+      <c r="Y103">
+        <v>30.820001062906265</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>939</v>
+      </c>
+      <c r="D104">
+        <v>945.95</v>
+      </c>
+      <c r="E104">
+        <v>920.55</v>
+      </c>
+      <c r="F104">
+        <v>937</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>934.5</v>
+      </c>
+      <c r="H104">
+        <v>938.35593851771978</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>955.76756016966772</v>
+      </c>
+      <c r="K104">
+        <v>929.9815098777766</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>36.460197127149563</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>16.450000000000045</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>25.400000000000091</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.64763779527559007</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>943.23866678238107</v>
+      </c>
+      <c r="W104">
+        <v>919.36794809018579</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>23.870718692195283</v>
+      </c>
+      <c r="Y104">
+        <v>29.430144588764069</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>941.1</v>
+      </c>
+      <c r="D105">
+        <v>947</v>
+      </c>
+      <c r="E105">
+        <v>928</v>
+      </c>
+      <c r="F105">
+        <v>936</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>937</v>
+      </c>
+      <c r="H105">
+        <v>937.67796925885989</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>953.81921346529714</v>
+      </c>
+      <c r="K105">
+        <v>929.54117434938178</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>35.374397395943681</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>942.12502573893778</v>
+      </c>
+      <c r="W105">
+        <v>920.59995193535724</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>21.52507380358054</v>
+      </c>
+      <c r="Y105">
+        <v>27.849130431727364</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>930.8</v>
+      </c>
+      <c r="D106">
+        <v>952.6</v>
+      </c>
+      <c r="E106">
+        <v>923.15</v>
+      </c>
+      <c r="F106">
+        <v>933.7</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>936.48333333333323</v>
+      </c>
+      <c r="H106">
+        <v>937.08065129609656</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>953.54827713967552</v>
+      </c>
+      <c r="K106">
+        <v>928.12091338285245</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>32.584550911283664</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>10.550000000000068</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>29.450000000000045</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.35823429541596102</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>940.82886793294733</v>
+      </c>
+      <c r="W106">
+        <v>921.57032586607147</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>19.258542066875862</v>
+      </c>
+      <c r="Y106">
+        <v>26.131012758757063</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>948</v>
+      </c>
+      <c r="D107">
+        <v>956</v>
+      </c>
+      <c r="E107">
+        <v>937.2</v>
+      </c>
+      <c r="F107">
+        <v>948.6</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>947.26666666666677</v>
+      </c>
+      <c r="H107">
+        <v>942.17365898138166</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>954.0931044419699</v>
+      </c>
+      <c r="K107">
+        <v>930.13848818666304</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>58.859034199706741</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>11.399999999999977</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>18.799999999999955</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.60638297872340452</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>942.02442671249389</v>
+      </c>
+      <c r="W107">
+        <v>923.57252395006617</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>18.451902762427721</v>
+      </c>
+      <c r="Y107">
+        <v>24.595190759491196</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
